--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Ccr10</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H2">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I2">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J2">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N2">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q2">
-        <v>0.03064367548800001</v>
+        <v>0.005017575796333334</v>
       </c>
       <c r="R2">
-        <v>0.275793079392</v>
+        <v>0.04515818216700001</v>
       </c>
       <c r="S2">
-        <v>0.04688439126599561</v>
+        <v>0.01298132543594511</v>
       </c>
       <c r="T2">
-        <v>0.0468843912659956</v>
+        <v>0.01298132543594512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H3">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I3">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J3">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>3.010662</v>
       </c>
       <c r="O3">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P3">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q3">
-        <v>0.134766263106</v>
+        <v>0.004755842406000001</v>
       </c>
       <c r="R3">
-        <v>1.212896367954</v>
+        <v>0.042802581654</v>
       </c>
       <c r="S3">
-        <v>0.2061904816669951</v>
+        <v>0.01230417645897238</v>
       </c>
       <c r="T3">
-        <v>0.2061904816669951</v>
+        <v>0.01230417645897238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H4">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I4">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J4">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N4">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q4">
-        <v>0.07504646762700003</v>
+        <v>0.000231993006</v>
       </c>
       <c r="R4">
-        <v>0.6754182086430001</v>
+        <v>0.002087937054</v>
       </c>
       <c r="S4">
-        <v>0.1148200369349617</v>
+        <v>0.0006002055239404495</v>
       </c>
       <c r="T4">
-        <v>0.1148200369349617</v>
+        <v>0.0006002055239404497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.134289</v>
+      </c>
+      <c r="H5">
+        <v>0.402867</v>
+      </c>
+      <c r="I5">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="J5">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0.230731</v>
-      </c>
-      <c r="H5">
-        <v>0.6921930000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.6321050901320476</v>
-      </c>
-      <c r="J5">
-        <v>0.6321050901320475</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N5">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q5">
-        <v>0.05265096835200001</v>
+        <v>0.142182999813</v>
       </c>
       <c r="R5">
-        <v>0.4738587151680001</v>
+        <v>1.279646998317</v>
       </c>
       <c r="S5">
-        <v>0.08055523893389953</v>
+        <v>0.367851701090448</v>
       </c>
       <c r="T5">
-        <v>0.08055523893389951</v>
+        <v>0.3678517010904481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.230731</v>
+        <v>0.134289</v>
       </c>
       <c r="H6">
-        <v>0.6921930000000001</v>
+        <v>0.402867</v>
       </c>
       <c r="I6">
-        <v>0.6321050901320476</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="J6">
-        <v>0.6321050901320475</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +809,22 @@
         <v>3.010662</v>
       </c>
       <c r="O6">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P6">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q6">
-        <v>0.231551017974</v>
+        <v>0.134766263106</v>
       </c>
       <c r="R6">
-        <v>2.083959161766</v>
+        <v>1.212896367954</v>
       </c>
       <c r="S6">
-        <v>0.3542697914610091</v>
+        <v>0.3486633366741806</v>
       </c>
       <c r="T6">
-        <v>0.3542697914610091</v>
+        <v>0.3486633366741808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.230731</v>
+        <v>0.134289</v>
       </c>
       <c r="H7">
-        <v>0.6921930000000001</v>
+        <v>0.402867</v>
       </c>
       <c r="I7">
-        <v>0.6321050901320476</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="J7">
-        <v>0.6321050901320475</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +865,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N7">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q7">
-        <v>0.128942404233</v>
+        <v>0.006573983706000001</v>
       </c>
       <c r="R7">
-        <v>1.160481638097</v>
+        <v>0.059165853354</v>
       </c>
       <c r="S7">
-        <v>0.197280059737139</v>
+        <v>0.01700801848584913</v>
       </c>
       <c r="T7">
-        <v>0.1972800597371389</v>
+        <v>0.01700801848584913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.132138</v>
+      </c>
+      <c r="I8">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J8">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.058783666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.176351</v>
+      </c>
+      <c r="O8">
+        <v>0.5014862149947701</v>
+      </c>
+      <c r="P8">
+        <v>0.5014862149947702</v>
+      </c>
+      <c r="Q8">
+        <v>0.046635185382</v>
+      </c>
+      <c r="R8">
+        <v>0.419716668438</v>
+      </c>
+      <c r="S8">
+        <v>0.1206531884683769</v>
+      </c>
+      <c r="T8">
+        <v>0.120653188468377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.132138</v>
+      </c>
+      <c r="I9">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J9">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.003554</v>
+      </c>
+      <c r="N9">
+        <v>3.010662</v>
+      </c>
+      <c r="O9">
+        <v>0.475327031240749</v>
+      </c>
+      <c r="P9">
+        <v>0.4753270312407492</v>
+      </c>
+      <c r="Q9">
+        <v>0.044202539484</v>
+      </c>
+      <c r="R9">
+        <v>0.3978228553559999</v>
+      </c>
+      <c r="S9">
+        <v>0.114359518107596</v>
+      </c>
+      <c r="T9">
+        <v>0.114359518107596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.132138</v>
+      </c>
+      <c r="I10">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J10">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.048954</v>
+      </c>
+      <c r="N10">
+        <v>0.146862</v>
+      </c>
+      <c r="O10">
+        <v>0.02318675376448066</v>
+      </c>
+      <c r="P10">
+        <v>0.02318675376448067</v>
+      </c>
+      <c r="Q10">
+        <v>0.002156227884</v>
+      </c>
+      <c r="R10">
+        <v>0.019406050956</v>
+      </c>
+      <c r="S10">
+        <v>0.005578529754691082</v>
+      </c>
+      <c r="T10">
+        <v>0.005578529754691083</v>
       </c>
     </row>
   </sheetData>
